--- a/data/input/absenteeism_data_48.xlsx
+++ b/data/input/absenteeism_data_48.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71852</v>
+        <v>7474</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isabel Rezende</t>
+          <t>Agatha Sales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,85 +494,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>11046.1</v>
+        <v>11163.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>49450</v>
+        <v>87852</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Danilo Lopes</t>
+          <t>Sophia Almeida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>6371.67</v>
+        <v>3294.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57853</v>
+        <v>84057</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Vitória Gomes</t>
+          <t>Vicente Vieira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>6117.2</v>
+        <v>11375.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3828</v>
+        <v>42868</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Pedro Henrique Dias</t>
+          <t>Theo Caldeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,187 +581,187 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>4462.14</v>
+        <v>7216.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7838</v>
+        <v>73610</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gabrielly da Costa</t>
+          <t>Camila Pereira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>7219.61</v>
+        <v>8403.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>83218</v>
+        <v>60732</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Antônio Porto</t>
+          <t>Yasmin Pires</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>4130.48</v>
+        <v>2999.94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96126</v>
+        <v>10123</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Calebe Oliveira</t>
+          <t>Luiza Cavalcanti</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>5111.91</v>
+        <v>6239.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>49177</v>
+        <v>87084</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Theo Souza</t>
+          <t>João Guilherme Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>4982.11</v>
+        <v>12099.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30684</v>
+        <v>30268</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Pereira</t>
+          <t>Thales da Rocha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>3033.91</v>
+        <v>10832.79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>90012</v>
+        <v>22946</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sofia Costa</t>
+          <t>Sr. Emanuel Viana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>8512.219999999999</v>
+        <v>5418.21</v>
       </c>
     </row>
   </sheetData>
